--- a/examples/results/Example data/CDH1/individual_results_direct/tables/CDH1_Low methylated DNA_1/CDH1_Low methylated DNA_1_QC_table.xlsx
+++ b/examples/results/Example data/CDH1/individual_results_direct/tables/CDH1_Low methylated DNA_1/CDH1_Low methylated DNA_1_QC_table.xlsx
@@ -449,7 +449,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="J2" t="n">
         <v>0.02</v>
